--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,18 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Fgfr1</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H2">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N2">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O2">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P2">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q2">
-        <v>1.605202965132146</v>
+        <v>2.182439256669</v>
       </c>
       <c r="R2">
-        <v>1.605202965132146</v>
+        <v>8.729757026675999</v>
       </c>
       <c r="S2">
-        <v>0.08903631199983512</v>
+        <v>0.06756194989911413</v>
       </c>
       <c r="T2">
-        <v>0.08903631199983512</v>
+        <v>0.05207231778298635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H3">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N3">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P3">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q3">
-        <v>8.830513501895481</v>
+        <v>12.164282834816</v>
       </c>
       <c r="R3">
-        <v>8.830513501895481</v>
+        <v>72.985697008896</v>
       </c>
       <c r="S3">
-        <v>0.4898049482538784</v>
+        <v>0.376570694892489</v>
       </c>
       <c r="T3">
-        <v>0.4898049482538784</v>
+        <v>0.4353539733862565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H4">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N4">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O4">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P4">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q4">
-        <v>0.1495002823596314</v>
+        <v>0.199401143403</v>
       </c>
       <c r="R4">
-        <v>0.1495002823596314</v>
+        <v>1.196406860418</v>
       </c>
       <c r="S4">
-        <v>0.008292380510984035</v>
+        <v>0.006172877444012535</v>
       </c>
       <c r="T4">
-        <v>0.008292380510984035</v>
+        <v>0.007136473334029634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H5">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N5">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O5">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P5">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q5">
-        <v>0.2145091130926149</v>
+        <v>0.312128184004</v>
       </c>
       <c r="R5">
-        <v>0.2145091130926149</v>
+        <v>1.872769104024</v>
       </c>
       <c r="S5">
-        <v>0.01189824634951984</v>
+        <v>0.009662577625168714</v>
       </c>
       <c r="T5">
-        <v>0.01189824634951984</v>
+        <v>0.01117092120902115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H6">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N6">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O6">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P6">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q6">
-        <v>1.030054923662533</v>
+        <v>1.399131172124</v>
       </c>
       <c r="R6">
-        <v>1.030054923662533</v>
+        <v>8.394787032744</v>
       </c>
       <c r="S6">
-        <v>0.05713438957710472</v>
+        <v>0.04331301770002349</v>
       </c>
       <c r="T6">
-        <v>0.05713438957710472</v>
+        <v>0.05007424797205214</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.216573</v>
+      </c>
+      <c r="H7">
+        <v>0.433146</v>
+      </c>
+      <c r="I7">
+        <v>0.7890929340172668</v>
+      </c>
+      <c r="J7">
+        <v>0.7760929277509313</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>42.6300515</v>
+      </c>
+      <c r="N7">
+        <v>85.260103</v>
+      </c>
+      <c r="O7">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P7">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q7">
+        <v>9.2325181435095</v>
+      </c>
+      <c r="R7">
+        <v>36.930072574038</v>
+      </c>
+      <c r="S7">
+        <v>0.2858118164564589</v>
+      </c>
+      <c r="T7">
+        <v>0.2202849940665855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.027584</v>
+      </c>
+      <c r="I8">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J8">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.077153</v>
+      </c>
+      <c r="N8">
+        <v>20.154306</v>
+      </c>
+      <c r="O8">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P8">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q8">
+        <v>0.092656062784</v>
+      </c>
+      <c r="R8">
+        <v>0.555936376704</v>
+      </c>
+      <c r="S8">
+        <v>0.002868361285443651</v>
+      </c>
+      <c r="T8">
+        <v>0.003316116999177865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.027584</v>
+      </c>
+      <c r="I9">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J9">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N9">
+        <v>168.501376</v>
+      </c>
+      <c r="O9">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P9">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q9">
+        <v>0.5164379950648889</v>
+      </c>
+      <c r="R9">
+        <v>4.647941955584</v>
+      </c>
+      <c r="S9">
+        <v>0.01598741309383659</v>
+      </c>
+      <c r="T9">
+        <v>0.02772461018198598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.027584</v>
+      </c>
+      <c r="I10">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J10">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.762133</v>
+      </c>
+      <c r="O10">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P10">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q10">
+        <v>0.008465630741333333</v>
+      </c>
+      <c r="R10">
+        <v>0.076190676672</v>
+      </c>
+      <c r="S10">
+        <v>0.000262071220659457</v>
+      </c>
+      <c r="T10">
+        <v>0.0004544714263686457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.027584</v>
+      </c>
+      <c r="I11">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J11">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.323644</v>
+      </c>
+      <c r="O11">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P11">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q11">
+        <v>0.01325148845511111</v>
+      </c>
+      <c r="R11">
+        <v>0.119263396096</v>
+      </c>
+      <c r="S11">
+        <v>0.0004102274078680995</v>
+      </c>
+      <c r="T11">
+        <v>0.0007113968283895949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.027584</v>
+      </c>
+      <c r="I12">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J12">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N12">
+        <v>19.380964</v>
+      </c>
+      <c r="O12">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P12">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q12">
+        <v>0.05940050121955556</v>
+      </c>
+      <c r="R12">
+        <v>0.534604510976</v>
+      </c>
+      <c r="S12">
+        <v>0.001838866156349818</v>
+      </c>
+      <c r="T12">
+        <v>0.003188874088785505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.027584</v>
+      </c>
+      <c r="I13">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J13">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>42.6300515</v>
+      </c>
+      <c r="N13">
+        <v>85.260103</v>
+      </c>
+      <c r="O13">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P13">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q13">
+        <v>0.3919691135253334</v>
+      </c>
+      <c r="R13">
+        <v>2.351814681152</v>
+      </c>
+      <c r="S13">
+        <v>0.01213421978599204</v>
+      </c>
+      <c r="T13">
+        <v>0.0140283906034748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0486905</v>
+      </c>
+      <c r="H14">
+        <v>0.097381</v>
+      </c>
+      <c r="I14">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J14">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.077153</v>
+      </c>
+      <c r="N14">
+        <v>20.154306</v>
+      </c>
+      <c r="O14">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P14">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q14">
+        <v>0.4906616181464999</v>
+      </c>
+      <c r="R14">
+        <v>1.962646472586</v>
+      </c>
+      <c r="S14">
+        <v>0.01518945169325269</v>
+      </c>
+      <c r="T14">
+        <v>0.01170703268187861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0486905</v>
+      </c>
+      <c r="H15">
+        <v>0.097381</v>
+      </c>
+      <c r="I15">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J15">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N15">
+        <v>168.501376</v>
+      </c>
+      <c r="O15">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P15">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q15">
+        <v>2.734805416042666</v>
+      </c>
+      <c r="R15">
+        <v>16.408832496256</v>
+      </c>
+      <c r="S15">
+        <v>0.08466159410297097</v>
+      </c>
+      <c r="T15">
+        <v>0.09787740226696551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0486905</v>
+      </c>
+      <c r="H16">
+        <v>0.097381</v>
+      </c>
+      <c r="I16">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J16">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.762133</v>
+      </c>
+      <c r="O16">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P16">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q16">
+        <v>0.04482987894549999</v>
+      </c>
+      <c r="R16">
+        <v>0.268979273673</v>
+      </c>
+      <c r="S16">
+        <v>0.001387802215362452</v>
+      </c>
+      <c r="T16">
+        <v>0.001604440326682319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0486905</v>
+      </c>
+      <c r="H17">
+        <v>0.097381</v>
+      </c>
+      <c r="I17">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J17">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.323644</v>
+      </c>
+      <c r="O17">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P17">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q17">
+        <v>0.07017346272733332</v>
+      </c>
+      <c r="R17">
+        <v>0.4210407763639999</v>
+      </c>
+      <c r="S17">
+        <v>0.002172365603552969</v>
+      </c>
+      <c r="T17">
+        <v>0.002511475295294632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.16803684324576</v>
-      </c>
-      <c r="H7">
-        <v>0.16803684324576</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="N7">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="O7">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="P7">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="Q7">
-        <v>6.198851904024701</v>
-      </c>
-      <c r="R7">
-        <v>6.198851904024701</v>
-      </c>
-      <c r="S7">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="T7">
-        <v>0.3438337233086778</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0486905</v>
+      </c>
+      <c r="H18">
+        <v>0.097381</v>
+      </c>
+      <c r="I18">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J18">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N18">
+        <v>19.380964</v>
+      </c>
+      <c r="O18">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P18">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q18">
+        <v>0.3145562758806666</v>
+      </c>
+      <c r="R18">
+        <v>1.887337655284</v>
+      </c>
+      <c r="S18">
+        <v>0.009737744263241463</v>
+      </c>
+      <c r="T18">
+        <v>0.01125782147766898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0486905</v>
+      </c>
+      <c r="H19">
+        <v>0.097381</v>
+      </c>
+      <c r="I19">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J19">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.6300515</v>
+      </c>
+      <c r="N19">
+        <v>85.260103</v>
+      </c>
+      <c r="O19">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P19">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q19">
+        <v>2.07567852256075</v>
+      </c>
+      <c r="R19">
+        <v>8.302714090243001</v>
+      </c>
+      <c r="S19">
+        <v>0.06425694915420303</v>
+      </c>
+      <c r="T19">
+        <v>0.04952504007239628</v>
       </c>
     </row>
   </sheetData>
